--- a/biology/Médecine/Claude_Binet_(homéopathe)/Claude_Binet_(homéopathe).xlsx
+++ b/biology/Médecine/Claude_Binet_(homéopathe)/Claude_Binet_(homéopathe).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Claude_Binet_(hom%C3%A9opathe)</t>
+          <t>Claude_Binet_(homéopathe)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claude Binet (12 juin 1911 à Besançon - 21 mars 1985 à Paris 16e[1]) est un médecin homéopathe français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Binet (12 juin 1911 à Besançon - 21 mars 1985 à Paris 16e) est un médecin homéopathe français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Claude_Binet_(hom%C3%A9opathe)</t>
+          <t>Claude_Binet_(homéopathe)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils de médecin, Claude Binet fait ses études de médecine à Paris. Son cursus est interrompu par deux années de sanatorium[2].
-Interne des hôpitaux Saint-Michel et Saint-Joseph[2], puis médecin à Dole (Jura) pendant la guerre, il s’installe à Paris en 1950. Son intérêt croissant pour les médecines douces l’oriente vers l’homéopathie dans les années soixante.
-Son premier ouvrage, Homéopathie pratique, paru en 1967 et traduit en plusieurs langues, devient un best seller et est considéré comme un manuel de référence[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de médecin, Claude Binet fait ses études de médecine à Paris. Son cursus est interrompu par deux années de sanatorium.
+Interne des hôpitaux Saint-Michel et Saint-Joseph, puis médecin à Dole (Jura) pendant la guerre, il s’installe à Paris en 1950. Son intérêt croissant pour les médecines douces l’oriente vers l’homéopathie dans les années soixante.
+Son premier ouvrage, Homéopathie pratique, paru en 1967 et traduit en plusieurs langues, devient un best seller et est considéré comme un manuel de référence.
 </t>
         </is>
       </c>
